--- a/数据/test2.xlsx
+++ b/数据/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCOS_project\PCOS_transfer_data\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D62189-9999-4FDE-8812-860DAFDDB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE6F22-3D41-4475-9F5A-B0B65834497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1455" windowWidth="15735" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="1710" windowWidth="18720" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t xml:space="preserve">                      激 素 检 测 报 告 单</t>
   </si>
@@ -31,9 +31,6 @@
     <t>姓       名：</t>
   </si>
   <si>
-    <t>郝海萍</t>
-  </si>
-  <si>
     <t>实验号：</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>提示</t>
   </si>
   <si>
-    <t>睾酮（T）</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>17α-羟孕酮（17α-OHP）</t>
   </si>
   <si>
-    <t>孕酮（P）</t>
-  </si>
-  <si>
     <t>脱氢表雄酮（DHEA）</t>
   </si>
   <si>
@@ -182,10 +173,6 @@
   </si>
   <si>
     <t>3.本报告仅对本样品负责，所检测个体在不同生理时期血液中激素含量会有变化，必要时可能需要采集其它时期标本或需多次送检。如对本次检测结果有疑义，请在5个工作日内联系我们，多谢合作！</t>
-  </si>
-  <si>
-    <t>卵泡期0.09 - 2.00；黄体期0.3-2.34</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>送检单位：</t>
@@ -210,6 +197,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>育龄女性：</t>
@@ -219,6 +207,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -231,6 +220,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>妊娠女性：</t>
@@ -240,6 +230,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -248,50 +239,62 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.30 - 2.35；
+    <t>睾酮（T）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本条码：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.30 - 2.35
 </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>19-30岁：&lt;13
-31-40岁：&lt;10
-41-50岁：&lt;8</t>
+    <t>卵泡期0.09-2.00;黄体期0.3-2.34</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>睾酮（T）</t>
+    <t>19-30岁&lt;13;
+31-40岁&lt;10
+41-50岁&lt;8</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>样本条码：</t>
+    <t>雄激素5项测试-郝海萍</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
+    <t>睾酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>A4</t>
+    <t>雄烯二酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>DHEAS</t>
+    <t>硫酸脱氢表雄酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>DHT</t>
+    <t>双氢睾酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>17-OHP</t>
+    <t>17α-羟孕酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
+    <t>孕酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>DHEA</t>
+    <t>脱氢表雄酮</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -314,6 +317,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -328,6 +332,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -336,6 +341,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -343,18 +349,21 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -362,18 +371,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,6 +393,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -388,12 +401,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -401,12 +416,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -414,11 +431,13 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -426,6 +445,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -680,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -770,6 +790,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -778,27 +805,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -829,43 +875,110 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,13 +992,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,92 +1007,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1046,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1484,7 +1507,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M16"/>
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,611 +1527,629 @@
     <col min="13" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="8"/>
       <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="82">
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31">
         <v>2343127051</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="82" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="83" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="51">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="41">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="28" t="s">
+      <c r="L10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="26">
+        <v>32378</v>
+      </c>
+      <c r="N10" s="6">
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="41">
+      <c r="B11" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="51">
         <v>2.9580000000000002</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="51"/>
+      <c r="I11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="2">
+        <v>32379</v>
+      </c>
+      <c r="N11" s="6">
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="41">
+      <c r="B12" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="51">
         <v>2776.39</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="89" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="M12" s="26">
+        <v>32380</v>
+      </c>
+      <c r="N12" s="6">
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>4</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="42">
+      <c r="B13" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="M13" s="26">
+        <v>32383</v>
+      </c>
+      <c r="N13" s="6">
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="43">
+      <c r="B14" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="60">
         <v>1.528</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="50"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="M14" s="26">
+        <v>32382</v>
+      </c>
+      <c r="N14" s="6">
+        <v>32024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>6</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="42">
+      <c r="B15" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="41">
+      <c r="B16" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="51">
         <v>2.7519999999999998</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="89" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="M16" s="26">
+        <v>32381</v>
+      </c>
+      <c r="N16" s="6">
+        <v>32025</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="A17" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="52" t="s">
-        <v>29</v>
+      <c r="B19" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="81" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="53"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="82"/>
     </row>
     <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="53"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="53"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>5</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="82"/>
     </row>
     <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="82"/>
     </row>
     <row r="25" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="81" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="54"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="F26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="F26" s="14" t="s">
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+    </row>
+    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
-    </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-    </row>
-    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -2120,20 +2161,20 @@
       <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
+      <c r="A29" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
@@ -2144,34 +2185,34 @@
       <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
+      <c r="A30" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
